--- a/artfynd/A 59728-2021.xlsx
+++ b/artfynd/A 59728-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY14"/>
+  <dimension ref="A1:AY23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2258,6 +2258,1005 @@
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112389296</v>
+      </c>
+      <c r="B15" t="n">
+        <v>94287</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>53</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Crossocalyx hellerianus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Paradiset, Dlr</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>520702</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6706232</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>10:03</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>10:03</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Uno Skog</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Uno Skog, Holger Martinussen, Anton Björk</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112388168</v>
+      </c>
+      <c r="B16" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Övre Tjärna, Dlr</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>520808</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6706139</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Holger Martinussen</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Holger Martinussen, Uno Skog, Anton Björk</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112389778</v>
+      </c>
+      <c r="B17" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Övre Tjärna, Dlr</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>520924</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6706050</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Holger Martinussen</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Holger Martinussen, Uno Skog, Anton Björk</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112435727</v>
+      </c>
+      <c r="B18" t="n">
+        <v>89539</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Plättbacken, Dlr</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>520887</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6706018</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Anton Björk</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Anton Björk, Uno Skog, Holger Martinussen</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112435720</v>
+      </c>
+      <c r="B19" t="n">
+        <v>83492</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>241</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Gransotdyna</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Camarops tubulina</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Plättbacken, Dlr</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>520679</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6706241</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Anton Björk</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Anton Björk, Uno Skog, Holger Martinussen</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112388456</v>
+      </c>
+      <c r="B20" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Paradiset, Dlr</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>520759</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6706151</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Uno Skog</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Uno Skog, Holger Martinussen, Anton Björk</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112389127</v>
+      </c>
+      <c r="B21" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Paradiset, Dlr</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>520688</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6706226</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>09:47</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>09:47</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Uno Skog</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Uno Skog, Holger Martinussen, Anton Björk</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112388247</v>
+      </c>
+      <c r="B22" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Paradiset, Dlr</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>520819</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6706134</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>08:46</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>08:46</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Uno Skog</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Uno Skog, Holger Martinussen, Anton Björk</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112389655</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90821</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Paradiset, Dlr</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>520873</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6706060</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Uno Skog</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Uno Skog, Holger Martinussen, Anton Björk</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 59728-2021.xlsx
+++ b/artfynd/A 59728-2021.xlsx
@@ -2260,10 +2260,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112389296</v>
+        <v>112388168</v>
       </c>
       <c r="B15" t="n">
-        <v>94287</v>
+        <v>96735</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2272,39 +2272,50 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Paradiset, Dlr</t>
+          <t>Övre Tjärna, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>520702</v>
+        <v>520808</v>
       </c>
       <c r="R15" t="n">
-        <v>6706232</v>
+        <v>6706139</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2334,49 +2345,40 @@
           <t>2023-09-29</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>10:03</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-29</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>10:03</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Holger Martinussen</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Uno Skog, Holger Martinussen, Anton Björk</t>
+          <t>Holger Martinussen, Uno Skog, Anton Björk</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112388168</v>
+        <v>112389296</v>
       </c>
       <c r="B16" t="n">
-        <v>96720</v>
+        <v>94301</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2385,50 +2387,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Övre Tjärna, Dlr</t>
+          <t>Paradiset, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>520808</v>
+        <v>520702</v>
       </c>
       <c r="R16" t="n">
-        <v>6706139</v>
+        <v>6706232</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2458,30 +2449,39 @@
           <t>2023-09-29</t>
         </is>
       </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>10:03</t>
+        </is>
+      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-29</t>
         </is>
       </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>10:03</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Holger Martinussen</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Holger Martinussen, Uno Skog, Anton Björk</t>
+          <t>Uno Skog, Holger Martinussen, Anton Björk</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
@@ -2491,7 +2491,7 @@
         <v>112389778</v>
       </c>
       <c r="B17" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2603,10 +2603,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112435727</v>
+        <v>112435720</v>
       </c>
       <c r="B18" t="n">
-        <v>89539</v>
+        <v>83506</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2619,21 +2619,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>241</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gransotdyna</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Camarops tubulina</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2643,13 +2643,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>520887</v>
+        <v>520679</v>
       </c>
       <c r="R18" t="n">
-        <v>6706018</v>
+        <v>6706241</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2705,10 +2705,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112435720</v>
+        <v>112435727</v>
       </c>
       <c r="B19" t="n">
-        <v>83492</v>
+        <v>89553</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2721,21 +2721,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>241</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gransotdyna</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Camarops tubulina</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2745,13 +2745,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>520679</v>
+        <v>520887</v>
       </c>
       <c r="R19" t="n">
-        <v>6706241</v>
+        <v>6706018</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2807,10 +2807,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112388456</v>
+        <v>112389127</v>
       </c>
       <c r="B20" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>520759</v>
+        <v>520688</v>
       </c>
       <c r="R20" t="n">
-        <v>6706151</v>
+        <v>6706226</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2920,10 +2920,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112389127</v>
+        <v>112388247</v>
       </c>
       <c r="B21" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2961,10 +2961,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>520688</v>
+        <v>520819</v>
       </c>
       <c r="R21" t="n">
-        <v>6706226</v>
+        <v>6706134</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>08:46</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>08:46</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3033,10 +3033,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112388247</v>
+        <v>112388456</v>
       </c>
       <c r="B22" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3074,10 +3074,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>520819</v>
+        <v>520759</v>
       </c>
       <c r="R22" t="n">
-        <v>6706134</v>
+        <v>6706151</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>08:46</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>08:46</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3149,7 +3149,7 @@
         <v>112389655</v>
       </c>
       <c r="B23" t="n">
-        <v>90821</v>
+        <v>90835</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>

--- a/artfynd/A 59728-2021.xlsx
+++ b/artfynd/A 59728-2021.xlsx
@@ -2807,10 +2807,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112389127</v>
+        <v>112389655</v>
       </c>
       <c r="B20" t="n">
-        <v>96735</v>
+        <v>90835</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2819,25 +2819,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>5964</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>520688</v>
+        <v>520873</v>
       </c>
       <c r="R20" t="n">
-        <v>6706226</v>
+        <v>6706060</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2920,7 +2920,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112388247</v>
+        <v>112388456</v>
       </c>
       <c r="B21" t="n">
         <v>96735</v>
@@ -2961,10 +2961,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>520819</v>
+        <v>520759</v>
       </c>
       <c r="R21" t="n">
-        <v>6706134</v>
+        <v>6706151</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>08:46</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>08:46</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3033,7 +3033,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112388456</v>
+        <v>112389127</v>
       </c>
       <c r="B22" t="n">
         <v>96735</v>
@@ -3074,10 +3074,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>520759</v>
+        <v>520688</v>
       </c>
       <c r="R22" t="n">
-        <v>6706151</v>
+        <v>6706226</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3146,10 +3146,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112389655</v>
+        <v>112388247</v>
       </c>
       <c r="B23" t="n">
-        <v>90835</v>
+        <v>96735</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3158,25 +3158,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5964</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>520873</v>
+        <v>520819</v>
       </c>
       <c r="R23" t="n">
-        <v>6706060</v>
+        <v>6706134</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>08:46</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>08:46</t>
         </is>
       </c>
       <c r="AD23" t="b">
